--- a/4th Semester/TCL (Technical Computing)/prac.xlsx
+++ b/4th Semester/TCL (Technical Computing)/prac.xlsx
@@ -1,29 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IP330s\Desktop\Mechatronics\4th Semester\TCL (Technical Computing)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8418E-9ECF-486B-88F6-6D85027A6DD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Angle (deg)</t>
+  </si>
+  <si>
+    <t>Radians</t>
+  </si>
+  <si>
+    <t>sine</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,6 +101,3694 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7155742747658166E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25881904510252074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42261826174069944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8191520442889918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90630778703664994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96592582628906831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96592582628906831</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90630778703665005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.81915204428899169</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64278760968653947</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57357643635104594</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4226182617406995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34202014332566888</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.25881904510252102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17364817766693028</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.7155742747658194E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.7155742747657944E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.17364817766693047</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.25881904510252079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.34202014332566866</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.42261826174069927</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.57357643635104616</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.81915204428899158</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.90630778703665005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.96592582628906831</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.99619469809174555</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.96592582628906842</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.90630778703664994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.8191520442889918</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.76604444311897812</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.70710678118654768</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.64278760968653958</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.57357643635104649</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.42261826174069922</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.3420201433256686</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.25881904510252068</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.17364817766693039</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.7155742747658319E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9114-492F-A2B9-D93E03F92C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="101889712"/>
+        <c:axId val="101890032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101889712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101890032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="101890032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101889712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8440168472892351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.62833599002373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.293714059226865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.781812899310186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.035643556662947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.621879271594146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.85088487178853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.639610306789272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.94399988070802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.723683986009263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.94228634059948</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.567700833298488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.572335870731749</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.933324366016151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.632697771098719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.6575228282571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.6575228282571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88.632697771098719</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86.933324366016151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.572335870731763</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.567700833298503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77.94228634059948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.723683986009249</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.94399988070802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.63961030678928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.850884871788551</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.621879271594132</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.035643556662954</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.7818128993102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.293714059226893</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.628335990023725</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8440168472892378</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.102633609417758E-14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.8440168472892147</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-15.628335990023743</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-23.293714059226872</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-30.781812899310179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-38.035643556662933</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-45.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-51.621879271594153</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-57.85088487178853</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-63.639610306789272</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-68.943999880708006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-73.723683986009249</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-77.942286340599452</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-81.567700833298503</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-84.572335870731763</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-86.933324366016151</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-88.632697771098719</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-89.6575228282571</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-89.6575228282571</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-88.632697771098734</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-86.933324366016151</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-84.572335870731749</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-81.567700833298488</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-77.94228634059948</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-73.723683986009263</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-68.943999880708034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-63.639610306789294</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-57.850884871788566</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-51.621879271594182</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-45.000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-38.035643556662933</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-30.781812899310175</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-23.293714059226861</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-15.628335990023734</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-7.8440168472892484</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.205267218835516E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE79-45F0-9441-3DAB754C8FAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="327670840"/>
+        <c:axId val="327671480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="327670840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327671480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="327671480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327670840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="73"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FC9-46F5-A26E-EA14AFF5C95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419197936"/>
+        <c:axId val="419201776"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="419197936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419201776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419201776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419197936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="321">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C7D959-630C-4A8B-AF05-E7A6C65F602E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF49C99-208D-4B76-A1C6-AA0FC00EA290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DED342-C587-48D9-8082-D6E235B2F7EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +4053,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>RADIANS(A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>SIN(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>C4*90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B68" si="0">RADIANS(A5)</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C68" si="1">SIN(B5)</f>
+        <v>8.7155742747658166E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D68" si="2">C5*90</f>
+        <v>7.8440168472892351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>15.62833599002373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.25881904510252074</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>23.293714059226865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>30.781812899310186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.42261826174069944</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>38.035643556662947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>44.999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.57357643635104605</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>51.621879271594146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>57.85088487178853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>63.639610306789272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>68.94399988070802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.8191520442889918</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>73.723683986009263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>77.94228634059948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.90630778703664994</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>81.567700833298488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>84.572335870731749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>86.933324366016151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>88.632697771098719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>89.6575228282571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>89.6575228282571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>88.632697771098719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.8325957145940461</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.96592582628906831</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>86.933324366016151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>84.572335870731763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>115</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.0071286397934789</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.90630778703665005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>81.567700833298503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>77.94228634059948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>125</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.1816615649929121</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.81915204428899169</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>73.723683986009249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>130</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>68.94399988070802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>135</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>63.63961030678928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>140</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653947</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>57.850884871788551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>145</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.530727415391778</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.57357643635104594</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>51.621879271594132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>150</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>44.999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>155</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.7052603405912108</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.4226182617406995</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>38.035643556662954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>160</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>30.7818128993102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>165</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.8797932657906435</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.25881904510252102</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>23.293714059226893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>170</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.17364817766693028</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>15.628335990023725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>3.0543261909900767</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>8.7155742747658194E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>7.8440168472892378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>180</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>1.102633609417758E-14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>185</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>3.2288591161895095</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>-8.7155742747657944E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>-7.8440168472892147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>190</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>-0.17364817766693047</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>-15.628335990023743</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>195</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>3.4033920413889427</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>-0.25881904510252079</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>-23.293714059226872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566866</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>-30.781812899310179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>205</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>3.5779249665883754</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>-0.42261826174069927</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>-38.035643556662933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>210</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>-45.000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>215</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>3.7524578917878086</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>-0.57357643635104616</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>-51.621879271594153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653925</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>-57.85088487178853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>225</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>-63.639610306789272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>-0.7660444431189779</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>-68.943999880708006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>235</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>4.1015237421866741</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>-0.81915204428899158</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>-73.723683986009249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>240</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443837</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>-77.942286340599452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>245</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>4.2760566673861078</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>-0.90630778703665005</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>-81.567700833298503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>250</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>4.3633231299858242</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>-0.93969262078590843</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>-84.572335870731763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>255</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>4.4505895925855405</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>-0.96592582628906831</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>-86.933324366016151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>260</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>-88.632697771098719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>265</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>4.6251225177849733</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>-0.99619469809174555</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>-89.6575228282571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>270</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>275</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>4.7996554429844061</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>-0.99619469809174555</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>-89.6575228282571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>280</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>-88.632697771098734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>285</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>4.9741883681838388</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>-0.96592582628906842</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>-86.933324366016151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>290</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>-0.93969262078590832</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>-84.572335870731749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>295</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>5.1487212933832724</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>-0.90630778703664994</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>-81.567700833298488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>300</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>-77.94228634059948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>305</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>5.3232542185827052</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>-0.8191520442889918</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>-73.723683986009263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>310</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>-0.76604444311897812</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>-68.943999880708034</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>315</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>-63.639610306789294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>320</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653958</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>-57.850884871788566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>325</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B76" si="3">RADIANS(A69)</f>
+        <v>5.6723200689815707</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C76" si="4">SIN(B69)</f>
+        <v>-0.57357643635104649</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D76" si="5">C69*90</f>
+        <v>-51.621879271594182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>330</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>-45.000000000000043</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>335</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>5.8468529941810043</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>-0.42261826174069922</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>-38.035643556662933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>340</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>-0.3420201433256686</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>-30.781812899310175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>345</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>6.0213859193804371</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>-0.25881904510252068</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>-23.293714059226861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>350</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>6.1086523819801535</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>-0.17364817766693039</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>-15.628335990023734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>355</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>6.1959188445798699</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>-8.7155742747658319E-2</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>-7.8440168472892484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>360</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>-2.205267218835516E-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/4th Semester/TCL (Technical Computing)/prac.xlsx
+++ b/4th Semester/TCL (Technical Computing)/prac.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IP330s\Desktop\Mechatronics\4th Semester\TCL (Technical Computing)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8418E-9ECF-486B-88F6-6D85027A6DD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E08104-5CCD-4732-A4B9-67DFCFB3CC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7236" yWindow="1728" windowWidth="13668" windowHeight="9852" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plot from web data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'plot from web data'!$A$3:$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'plot from web data'!$B$3:$B$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'plot from web data'!$A$3:$A$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'plot from web data'!$B$3:$B$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -693,8 +700,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2000,6 +2008,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'plot from web data'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'plot from web data'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1066-4611-A6CE-4E29856892B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="560310736"/>
+        <c:axId val="560311056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560310736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560311056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560311056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560310736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2120,6 +2477,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -3674,6 +4071,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3783,6 +4696,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C024A0-7455-4B96-B4B7-488F7CEE1869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4056,7 +5010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="82" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -5319,4 +6273,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EE986B-C248-42B5-B348-608197CAB9AC}">
+  <dimension ref="A3:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>